--- a/webdriver_rediff/Suite.xlsx
+++ b/webdriver_rediff/Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13050" windowHeight="5025"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>SuiteName</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>BillingSuite</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/webdriver_rediff/Suite.xlsx
+++ b/webdriver_rediff/Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13050" windowHeight="5025"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -401,7 +401,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,7 +431,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
